--- a/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.75</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -530,15 +550,23 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.75</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -553,7 +581,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +602,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +642,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>63.08</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -667,4 +668,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -838,4 +839,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4964</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4575</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4482</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1047,4 +1048,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1056,7 +1057,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,17 +1068,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1087,14 +1108,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.52</v>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7875</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1103,14 +1146,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.28</v>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1119,14 +1184,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.23</v>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6620</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1135,13 +1222,607 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5239</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1721,7 +1722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1732,17 +1733,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1752,14 +1773,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.03</v>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5468</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1768,14 +1811,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.52</v>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1784,14 +1849,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0647</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.28</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="5">
@@ -1800,14 +1971,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="6">
@@ -1816,13 +1987,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,137 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001970</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0489</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002580</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>泰信鑫选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -637,36 +487,94 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>290002</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰信先行策略混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>9.83</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>63.08</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2271</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -701,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -731,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000264</t>
+          <t>009447</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>博时内需增长混合</t>
+          <t>财通资管科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>13.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>78.15</t>
+          <t>88.02</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1364</t>
+          <t>0.5468</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -769,32 +677,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005265</t>
+          <t>013345</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合A</t>
+          <t>富荣信息技术混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1210</t>
+          <t>0.0880</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -807,36 +715,700 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005266</t>
+          <t>013346</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时厚泽回报灵活配置混合C</t>
+          <t>富荣信息技术混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>90.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0252</t>
+          <t>0.0647</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7875</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7215</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6620</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5239</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时内需增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1079,7 +1651,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1109,32 +1681,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>000264</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>博时内需增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.50</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>78.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7875</t>
+          <t>0.1364</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1147,36 +1719,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020003</t>
+          <t>005265</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金龙行业混合</t>
+          <t>博时厚泽回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13.19</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.54</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.47</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7215</t>
+          <t>0.1210</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1185,530 +1757,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160212</t>
+          <t>005266</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰估值优势混合 (LOF)</t>
+          <t>博时厚泽回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.96</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.04</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6620</t>
+          <t>0.0252</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160211</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国泰中小盘成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.25</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5239</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>000264</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时内需增长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.75</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>003704</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大保德信事件驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>26.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0403</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011231</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>光大保德信锦弘混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006401</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0308</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005381</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005382</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰康睿利量化多策略混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0138</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006402</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>先锋量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>65.35</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010307</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>82.24</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0093</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>011232</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>光大保德信锦弘混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.09</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>010308</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>西藏东财信息产业精选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>82.24</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004724</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>先锋聚元灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>47.32</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>004725</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>先锋聚元灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>47.32</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1722,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1743,7 +1821,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1773,112 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>290002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>泰信先行策略混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13.37</t>
+          <t>9.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>63.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5468</t>
+          <t>0.2271</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>013345</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富荣信息技术混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0880</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>013346</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富荣信息技术混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.39</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0647</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1892,128 +1894,126 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.7</v>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.03</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05</v>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688595-芯海科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.03</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>1.52</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.28</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -583,6 +600,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013340</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013339</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信芯片产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1416,7 +1641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1624,7 +1849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1794,7 +2019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1888,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
